--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3896.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3896.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.874377831054423</v>
+        <v>1.659021973609924</v>
       </c>
       <c r="B1">
-        <v>2.013799994697158</v>
+        <v>2.262895107269287</v>
       </c>
       <c r="C1">
-        <v>2.288156565085838</v>
+        <v>4.481653690338135</v>
       </c>
       <c r="D1">
-        <v>3.591910927014391</v>
+        <v>4.458285331726074</v>
       </c>
       <c r="E1">
-        <v>3.606795182884315</v>
+        <v>1.49140727519989</v>
       </c>
     </row>
   </sheetData>
